--- a/biology/Microbiologie/Ctedoctematidae/Ctedoctematidae.xlsx
+++ b/biology/Microbiologie/Ctedoctematidae/Ctedoctematidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ctedoctematidae sont une famille de ciliés de la classe des Oligohymenophorea et de l'ordre des Pleuronematida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Ctedoctema, issu (d'après Stein créateur de ce nom en 1884), du grec ancien κτείνων / ktedon, « peigne »[1], en référence à la présence d'un velum (une couronne ciliée) en forme de peigne[2], et ktema, « possession »[1], littéralement « (cilié qui) possède un peigne ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Ctedoctema, issu (d'après Stein créateur de ce nom en 1884), du grec ancien κτείνων / ktedon, « peigne », en référence à la présence d'un velum (une couronne ciliée) en forme de peigne, et ktema, « possession », littéralement « (cilié qui) possède un peigne ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ctedoctematidae ont une petite taille (&lt; 80 µm). Leur forme est ovoïde. Ils vivent en natation libre. Leur ciliation somatique est holotriche (c. à d. homogène), clairsemée, typique des ciliés dicinétidés[note 1]. Leurs cils caudaux sont proéminents. Leur région buccale est médio-ventrale avec leur cytostome situé postérieurement à l'équateur de la cellule. Le velum (couronne ciliée) des segments paroraux a, b et c, est en forme de peigne ou de « C » ouvert ; il ne s'étend pas à gauche du cytostome. Une paroi nervurée est bien visible. Le polycinétide oral 3 se situe à angle droit par rapport à l'axe longitudinal de la région buccale. Leur macronoyau est globulaire à ellipsoïde, rarement nodulaire. Micronoyau, vacuole contractile et cytoprocte sont présents. Ils sont bactérivores[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ctedoctematidae ont une petite taille (&lt; 80 µm). Leur forme est ovoïde. Ils vivent en natation libre. Leur ciliation somatique est holotriche (c. à d. homogène), clairsemée, typique des ciliés dicinétidés[note 1]. Leurs cils caudaux sont proéminents. Leur région buccale est médio-ventrale avec leur cytostome situé postérieurement à l'équateur de la cellule. Le velum (couronne ciliée) des segments paroraux a, b et c, est en forme de peigne ou de « C » ouvert ; il ne s'étend pas à gauche du cytostome. Une paroi nervurée est bien visible. Le polycinétide oral 3 se situe à angle droit par rapport à l'axe longitudinal de la région buccale. Leur macronoyau est globulaire à ellipsoïde, rarement nodulaire. Micronoyau, vacuole contractile et cytoprocte sont présents. Ils sont bactérivores.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ctedoctematidae sont des ciliés marins[2].
-Bien que rares, ils ont été décrits dans un peu toutes les mers du globe[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ctedoctematidae sont des ciliés marins.
+Bien que rares, ils ont été décrits dans un peu toutes les mers du globe.
 </t>
         </is>
       </c>
@@ -605,13 +623,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (22 mars 2024)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (22 mars 2024) :
 Compsosomella Small &amp; Lynn, 1985
 Hippocomos Czapik &amp; Jordan, 1977
 Paractedoctema Song &amp; Wilbert, 2000
-Selon Lynn (2010)[2] :
+Selon Lynn (2010) :
 Compsosomella Small &amp; Lynn, 1985
 Ctedoctema Stokes, 1884 genre type
 Espèce type : Ctedoctema acanthocrypta Stokes, 1884
@@ -645,9 +665,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Ctedoctematidae Small &amp; Lynn, 1985[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Ctedoctematidae Small &amp; Lynn, 1985.
 </t>
         </is>
       </c>
